--- a/biology/Zoologie/Acanthurus/Acanthurus.xlsx
+++ b/biology/Zoologie/Acanthurus/Acanthurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Acanthurus regroupe des poissons-chirurgiens appartenant à la famille des Acanthuridae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons perciformes très aplatis latéralement et souvent très colorés. On les appelle « poissons-chirurgiens » en raison de l'éperon tranchant qu'ils portent de chaque côté de la queue et qui leur sert lors des combats nuptiaux entre mâles et parfois à la défense. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (2019) :
 Acanthurus achilles Shaw, 1803
 Acanthurus albimento (Carpenter &amp; Williams &amp; Santos, 2017)
 Acanthurus albipectoralis Allen &amp; Ayling, 1987
@@ -643,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acanthurus a été créé par le naturaliste suédois Pehr Forsskål et publié à titre posthume en 1775 grâce à Carsten Niebuhr[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthurus a été créé par le naturaliste suédois Pehr Forsskål et publié à titre posthume en 1775 grâce à Carsten Niebuhr.
 </t>
         </is>
       </c>
@@ -674,7 +692,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Forsskål, P. 1775. Descriptiones animalium avium, amphibiorum, piscium, insectorum, vermium, testaceorum, Litophytorum. Mölleri, Hauniae. (BHL)
 Randall, J. E. 1956. A revision of the surgeon fish genus Acanthurus. Pacific Science, 10(2): 159-235.</t>
